--- a/statistics/GPU.xlsx
+++ b/statistics/GPU.xlsx
@@ -33,11 +33,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,19 +287,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>4.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>8.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>16.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>32.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>64.0</v>
       </c>
     </row>
@@ -307,340 +307,340 @@
       <c r="A2" s="1">
         <v>5.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.03</v>
       </c>
       <c r="C2" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.03</v>
       </c>
       <c r="E2" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="F2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.04</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>10.0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.07</v>
       </c>
       <c r="C3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.05</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.05</v>
-      </c>
       <c r="E3" s="2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F3" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>20.0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="C4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.11</v>
       </c>
       <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
         <v>0.12</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.12</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>40.0</v>
       </c>
       <c r="B5" s="2">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.22</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.22</v>
-      </c>
       <c r="E5" s="2">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="F5" s="2">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>80.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.48</v>
       </c>
       <c r="C6" s="2">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="D6" s="2">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E6" s="2">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F6" s="2">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4.0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>8.0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>16.0</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>32.0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>64.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>5.0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.01</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.01</v>
       </c>
       <c r="D10" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E10" s="2">
         <v>0.01</v>
       </c>
+      <c r="E10" s="1">
+        <v>0.01</v>
+      </c>
       <c r="F10" s="2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.03</v>
       </c>
       <c r="F11" s="2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>20.0</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.05</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.07</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>40.0</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.12</v>
+      <c r="B13" s="2">
+        <v>0.11</v>
       </c>
       <c r="C13" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.24</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.22</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C14" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.25</v>
-      </c>
       <c r="F14" s="2">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>4.0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>8.0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>16.0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>32.0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>64.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>5.0</v>
       </c>
       <c r="B17" s="2">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="C17" s="2">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="2">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="2">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F17" s="2">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>10.0</v>
       </c>
       <c r="B18" s="2">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C18" s="2">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D18" s="2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E18" s="2">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F18" s="2">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>20.0</v>
       </c>
       <c r="B19" s="2">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="C19" s="2">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="D19" s="2">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E19" s="2">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F19" s="2">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>40.0</v>
       </c>
       <c r="B20" s="2">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="C20" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.2</v>
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.14</v>
       </c>
       <c r="F20" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B21" s="2">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.36</v>
-      </c>
       <c r="C21" s="2">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="D21" s="2">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="E21" s="2">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="F21" s="2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -659,140 +659,140 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.04</v>
       </c>
       <c r="D2" s="2">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="2">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4.0</v>
       </c>
       <c r="B4" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="C4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.04</v>
       </c>
       <c r="D4" s="2">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.04</v>
       </c>
       <c r="D5" s="2">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.56</v>
       </c>
       <c r="C6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.05</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.37</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>128.0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4.61</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>256.0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9.06</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/GPU.xlsx
+++ b/statistics/GPU.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>CPU</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t>MULTI_GPU</t>
+  </si>
+  <si>
+    <t>SingleGPU</t>
+  </si>
+  <si>
+    <t>MultiGPU</t>
   </si>
 </sst>
 </file>
@@ -53,13 +59,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -71,12 +78,1060 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Worst case, text size = 16MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$2:$H$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$2:$H$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$2:$H$10</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$10</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="614802394"/>
+        <c:axId val="1108739698"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614802394"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Pattern length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108739698"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1108739698"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614802394"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Text size = 320MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$14</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$15:$H$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$15:$I$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$14</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$15:$H$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$15:$J$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$14</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$15:$H$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$15:$K$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1889118168"/>
+        <c:axId val="1400480169"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1889118168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Pattern length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400480169"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400480169"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1889118168"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Pattern length = 64</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$23</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$24:$H$29</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$24:$I$29</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$23</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$24:$H$29</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$24:$J$29</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$23</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$H$24:$H$29</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$24:$K$29</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1861509053"/>
+        <c:axId val="535455644"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1861509053"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Text size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535455644"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535455644"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861509053"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -310,13 +1365,13 @@
       <c r="B2" s="1">
         <v>0.03</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.04</v>
       </c>
       <c r="D2" s="1">
         <v>0.03</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.03</v>
       </c>
       <c r="F2" s="1">
@@ -330,16 +1385,16 @@
       <c r="B3" s="1">
         <v>0.07</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.06</v>
       </c>
       <c r="D3" s="1">
         <v>0.05</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.06</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.06</v>
       </c>
     </row>
@@ -347,16 +1402,16 @@
       <c r="A4" s="1">
         <v>20.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.12</v>
       </c>
       <c r="C4" s="1">
         <v>0.11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.11</v>
       </c>
       <c r="F4" s="1">
@@ -367,19 +1422,19 @@
       <c r="A5" s="1">
         <v>40.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.24</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.21</v>
       </c>
       <c r="D5" s="1">
         <v>0.22</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.28</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -390,16 +1445,16 @@
       <c r="B6" s="1">
         <v>0.48</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.43</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.43</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.43</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.49</v>
       </c>
     </row>
@@ -433,13 +1488,13 @@
       <c r="C10" s="1">
         <v>0.01</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.01</v>
       </c>
       <c r="E10" s="1">
         <v>0.01</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -459,7 +1514,7 @@
       <c r="E11" s="1">
         <v>0.03</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.03</v>
       </c>
     </row>
@@ -467,19 +1522,19 @@
       <c r="A12" s="1">
         <v>20.0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.06</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.06</v>
       </c>
       <c r="D12" s="1">
         <v>0.06</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.05</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.07</v>
       </c>
     </row>
@@ -487,19 +1542,19 @@
       <c r="A13" s="1">
         <v>40.0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>0.24</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -510,16 +1565,16 @@
       <c r="B14" s="1">
         <v>0.22</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.23</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.63</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.27</v>
       </c>
     </row>
@@ -547,19 +1602,19 @@
       <c r="A17" s="1">
         <v>5.0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.03</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>0.01</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.02</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.03</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.03</v>
       </c>
     </row>
@@ -567,19 +1622,19 @@
       <c r="A18" s="1">
         <v>10.0</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.06</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>0.04</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>0.03</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>0.03</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.04</v>
       </c>
     </row>
@@ -587,19 +1642,19 @@
       <c r="A19" s="1">
         <v>20.0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.06</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>0.05</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>0.06</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>0.06</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.06</v>
       </c>
     </row>
@@ -607,19 +1662,19 @@
       <c r="A20" s="1">
         <v>40.0</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.24</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.12</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.26</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.14</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -627,19 +1682,19 @@
       <c r="A21" s="1">
         <v>80.0</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.28</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.21</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.27</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.22</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.25</v>
       </c>
     </row>
@@ -668,6 +1723,15 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -677,10 +1741,24 @@
         <v>0.06</v>
       </c>
       <c r="C2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.07</v>
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2:J10" si="1">int(B2/C2)</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:K10" si="2">int(B2/D2)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -688,27 +1766,55 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.04</v>
+        <v>0.09</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>4.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.16</v>
       </c>
       <c r="C4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -719,10 +1825,24 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.05</v>
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -732,11 +1852,25 @@
       <c r="B6" s="1">
         <v>0.56</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.04</v>
+      <c r="C6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -746,11 +1880,25 @@
       <c r="B7" s="1">
         <v>1.21</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.04</v>
+      <c r="C7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -758,41 +1906,431 @@
         <v>64.0</v>
       </c>
       <c r="B8" s="1">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="C8" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.11</v>
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>128.0</v>
       </c>
-      <c r="B9" s="2">
-        <v>4.58</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.04</v>
+      <c r="B9" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>256.0</v>
       </c>
-      <c r="B10" s="2">
-        <v>9.12</v>
+      <c r="B10" s="1">
+        <v>9.13</v>
       </c>
       <c r="C10" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" ref="J15:J19" si="3">round(B15/C15, 2)</f>
+        <v>6.8</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" ref="K15:K19" si="4">round(B15/D15, 2)</f>
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
+        <v>5.97</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="4"/>
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="H17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>4.86</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="4"/>
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.29</v>
+      </c>
+      <c r="H18" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>5.29</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="4"/>
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H19" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>4.83</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="4"/>
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B24" s="1">
         <v>0.06</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C24" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ref="J24:J29" si="5">round(B24/C24, 2)</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K29" si="6">round(B24/D24, 2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.05</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.89</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="6"/>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="H27" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.83</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="6"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H28" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="5"/>
+        <v>3.06</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="6"/>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>320.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="H29" s="1">
+        <v>320.0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/GPU.xlsx
+++ b/statistics/GPU.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>CPU</t>
   </si>
@@ -118,7 +117,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -146,12 +145,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$2:$H$10</c:f>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$10</c:f>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -161,7 +160,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -189,12 +188,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$2:$H$10</c:f>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$10</c:f>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -204,7 +203,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -232,21 +231,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$2:$H$10</c:f>
+              <c:f>Sheet1!$H$2:$H$10</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$10</c:f>
+              <c:f>Sheet1!$K$2:$K$10</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="614802394"/>
-        <c:axId val="1108739698"/>
+        <c:axId val="966317044"/>
+        <c:axId val="1872138030"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="614802394"/>
+        <c:axId val="966317044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -298,10 +297,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1108739698"/>
+        <c:crossAx val="1872138030"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1108739698"/>
+        <c:axId val="1872138030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614802394"/>
+        <c:crossAx val="966317044"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -442,7 +441,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$14</c:f>
+              <c:f>Sheet1!$I$14</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -470,12 +469,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$15:$H$19</c:f>
+              <c:f>Sheet1!$H$15:$H$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$15:$I$19</c:f>
+              <c:f>Sheet1!$I$15:$I$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -485,7 +484,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$14</c:f>
+              <c:f>Sheet1!$J$14</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -513,12 +512,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$15:$H$19</c:f>
+              <c:f>Sheet1!$H$15:$H$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$15:$J$19</c:f>
+              <c:f>Sheet1!$J$15:$J$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -528,7 +527,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$14</c:f>
+              <c:f>Sheet1!$K$14</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -556,21 +555,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$15:$H$19</c:f>
+              <c:f>Sheet1!$H$15:$H$19</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$15:$K$19</c:f>
+              <c:f>Sheet1!$K$15:$K$19</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1889118168"/>
-        <c:axId val="1400480169"/>
+        <c:axId val="703325789"/>
+        <c:axId val="1554318250"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1889118168"/>
+        <c:axId val="703325789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,10 +621,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400480169"/>
+        <c:crossAx val="1554318250"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1400480169"/>
+        <c:axId val="1554318250"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +699,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1889118168"/>
+        <c:crossAx val="703325789"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -766,7 +765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$23</c:f>
+              <c:f>Sheet1!$I$23</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -794,12 +793,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$24:$H$29</c:f>
+              <c:f>Sheet1!$H$24:$H$29</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$24:$I$29</c:f>
+              <c:f>Sheet1!$I$24:$I$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -809,7 +808,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$23</c:f>
+              <c:f>Sheet1!$J$23</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -837,12 +836,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$24:$H$29</c:f>
+              <c:f>Sheet1!$H$24:$H$29</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$J$24:$J$29</c:f>
+              <c:f>Sheet1!$J$24:$J$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -852,7 +851,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$23</c:f>
+              <c:f>Sheet1!$K$23</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -880,21 +879,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$H$24:$H$29</c:f>
+              <c:f>Sheet1!$H$24:$H$29</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$24:$K$29</c:f>
+              <c:f>Sheet1!$K$24:$K$29</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1861509053"/>
-        <c:axId val="535455644"/>
+        <c:axId val="1943800306"/>
+        <c:axId val="1693480843"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1861509053"/>
+        <c:axId val="1943800306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,10 +945,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535455644"/>
+        <c:crossAx val="1693480843"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535455644"/>
+        <c:axId val="1693480843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1023,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861509053"/>
+        <c:crossAx val="1943800306"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1051,10 +1050,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1339,381 +1334,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.07</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
